--- a/docs/assets/research_plan/ALL_Research_Plan.xlsx
+++ b/docs/assets/research_plan/ALL_Research_Plan.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaketruscott\Github\American-Legal-Lexicon\docs\assets\research_plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C72C0D6-D698-4BBD-B032-CFE1CEE225D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92540342-958C-4D7A-AF48-8058E47F9757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3F2BD46B-B848-449B-8AA7-7FA958A2F063}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3F2BD46B-B848-449B-8AA7-7FA958A2F063}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Project</t>
   </si>
@@ -158,6 +158,19 @@
   <si>
     <t>- Collect and process more SCOTUS cases (1930s?) 
 - Reconfigure first stage</t>
+  </si>
+  <si>
+    <t>Analyzing rates of per curiam authorship given the rising tide of threats against jurists, both from political actors and the public.</t>
+  </si>
+  <si>
+    <t>Planning stage</t>
+  </si>
+  <si>
+    <t>- Assess once all data is collected. 
+- Paper has potential for high impact status given public salience. Would also be a good use of the full dataset apart from just "we have these data"</t>
+  </si>
+  <si>
+    <t>Unsigned and Under Siege: Judicial Insecurity and the Rise of Per Curiam Opinions (Working Title)</t>
   </si>
 </sst>
 </file>
@@ -280,23 +293,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA14E40D-54DB-4777-B438-039403564676}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,42 +657,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -690,16 +703,16 @@
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
@@ -708,16 +721,16 @@
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
@@ -726,16 +739,16 @@
       <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -744,73 +757,82 @@
       <c r="B7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:6" ht="174" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" ht="174" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
@@ -869,7 +891,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -881,6 +903,13 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
